--- a/biology/Médecine/Acétate_de_sodium/Acétate_de_sodium.xlsx
+++ b/biology/Médecine/Acétate_de_sodium/Acétate_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_de_sodium</t>
+          <t>Acétate_de_sodium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acétate de sodium est un composé de formule CH3COO− Na+. Il est soluble dans l'eau et constitue une bonne source d'ions acétate. Sa solution aqueuse est basique en raison de la réaction :
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_de_sodium</t>
+          <t>Acétate_de_sodium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétate de sodium est une base conjuguée de l'acide acétique. En conséquence, il est extrêmement simple de le synthétiser en mélangeant cet acide (habituellement en solution à 5–8% sous forme de vinaigre) avec du bicarbonate de sodium, du carbonate de sodium ou de la soude caustique (hydroxyde de sodium). Les autres produits de ces réactions sont de l'eau (et du dioxyde de carbone dans les deux premiers cas).
 Les réactions qui entrent en jeu sont les suivantes :
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_de_sodium</t>
+          <t>Acétate_de_sodium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Réactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétate de sodium peut être utilisé pour synthétiser des esters suivant la réaction de substitution :
 CH3COONa + RBr → CH3COOR + NaBr
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_de_sodium</t>
+          <t>Acétate_de_sodium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,9 +608,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On retrouve dans le commerce des pochettes vendues comme sources de chaleur portatives (chaufferettes). Ces pochettes contiennent une solution aqueuse saturée en acétate de sodium. En sursaturation, la température de dissolution étant à 54 °C pour une solution à 20 %[réf. nécessaire], ce qui est bien au-dessus de la température ambiante. Une variation de pression (par trituration) ne suffit pas, en règle générale, à provoquer la précipitation. En tordant une plaquette métallique à l'intérieur du liquide, on libère des germes d'acétate solidifié qui déclenchent la cristallisation et la solution devient solide[8]. Cette transformation est exothermique, ce qui signifie qu'elle s'accompagne d'un dégagement de chaleur, suffisant pour procurer un réconfort à l'utilisateur. On dissout à nouveau le sel en plaçant la pochette dans de l'eau très chaude ; même en refroidissant, l'acétate de sodium demeure en solution.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On retrouve dans le commerce des pochettes vendues comme sources de chaleur portatives (chaufferettes). Ces pochettes contiennent une solution aqueuse saturée en acétate de sodium. En sursaturation, la température de dissolution étant à 54 °C pour une solution à 20 %[réf. nécessaire], ce qui est bien au-dessus de la température ambiante. Une variation de pression (par trituration) ne suffit pas, en règle générale, à provoquer la précipitation. En tordant une plaquette métallique à l'intérieur du liquide, on libère des germes d'acétate solidifié qui déclenchent la cristallisation et la solution devient solide. Cette transformation est exothermique, ce qui signifie qu'elle s'accompagne d'un dégagement de chaleur, suffisant pour procurer un réconfort à l'utilisateur. On dissout à nouveau le sel en plaçant la pochette dans de l'eau très chaude ; même en refroidissant, l'acétate de sodium demeure en solution.
 L'acétate de sodium est un des plus vieux agents conservateurs alimentaires (E262), c'est le sel de sodium de l'acide acétique (E260).
 A la Belle Époque, l'acétate de sodium était considéré par les médecins comme un médicament diurétique et révulsif.</t>
         </is>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tate_de_sodium</t>
+          <t>Acétate_de_sodium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Sécurité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétate de sodium est un irritant, il est préférable d'éviter le contact du produit pur avec la peau.
 </t>
